--- a/outputdata.xlsx
+++ b/outputdata.xlsx
@@ -2235,7 +2235,9 @@
       <c r="I53" t="n">
         <v>2557413</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>294.1764705882353</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -2253,7 +2255,9 @@
       <c r="I54" t="n">
         <v>902870</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>294.1764705882353</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/outputdata.xlsx
+++ b/outputdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,47 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Facility Total</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Annual</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Employee Average</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Staff Increase/Decrease</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Population 2023</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Total Deficiencies</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Fines</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Sum of Fines</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Facility Total</t>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Certified Beds by State</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Gross Patient Revenue</t>
         </is>
       </c>
     </row>
@@ -492,31 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>225</v>
+      </c>
+      <c r="C2" t="n">
         <v>8012</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>96144</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>19238.77777777778</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.09617449009466185</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>5056005</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>535</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>54</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>851118</v>
       </c>
-      <c r="J2" t="n">
-        <v>225</v>
+      <c r="K2" t="n">
+        <v>26573</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2122719</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +542,37 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" t="n">
         <v>37814</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>453768</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>581.7777777777778</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.2512</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>731721</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>2258</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>244</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>2078926</v>
       </c>
-      <c r="J3" t="n">
-        <v>20</v>
+      <c r="K3" t="n">
+        <v>720</v>
+      </c>
+      <c r="L3" t="n">
+        <v>165283</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +582,37 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>142</v>
+      </c>
+      <c r="C4" t="n">
         <v>7848</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>94176</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>14836.11111111111</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1309341500765697</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>7408017</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>6039</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>346</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>3670366</v>
       </c>
-      <c r="J4" t="n">
-        <v>142</v>
+      <c r="K4" t="n">
+        <v>15828</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1934486</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +622,37 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>218</v>
+      </c>
+      <c r="C5" t="n">
         <v>7300</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>87600</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>10633.44444444445</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1041940285439103</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>3042231</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>3066</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>191</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>1130158</v>
       </c>
-      <c r="J5" t="n">
-        <v>218</v>
+      <c r="K5" t="n">
+        <v>24928</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1740574</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +662,37 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>1170</v>
+      </c>
+      <c r="C6" t="n">
         <v>11753</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>141036</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>91049.22222222222</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1425659619796788</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>38959247</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>52680</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>2765</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>23922459</v>
       </c>
-      <c r="J6" t="n">
-        <v>1170</v>
+      <c r="K6" t="n">
+        <v>113562</v>
+      </c>
+      <c r="L6" t="n">
+        <v>15833208</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +702,37 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>218</v>
+      </c>
+      <c r="C7" t="n">
         <v>10281</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>123372</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>14047.55555555555</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.08539621075923109</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>5855078</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>5030</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>806</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>10149862</v>
       </c>
-      <c r="J7" t="n">
-        <v>218</v>
+      <c r="K7" t="n">
+        <v>20179</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2201353</v>
       </c>
     </row>
     <row r="8">
@@ -696,31 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>203</v>
+      </c>
+      <c r="C8" t="n">
         <v>16516</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>198192</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>18894.22222222222</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.1014821536600121</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>3609924</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>5724</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>386</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>6550825</v>
       </c>
-      <c r="J8" t="n">
-        <v>203</v>
+      <c r="K8" t="n">
+        <v>26881</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3763507</v>
       </c>
     </row>
     <row r="9">
@@ -730,31 +782,37 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>44</v>
+      </c>
+      <c r="C9" t="n">
         <v>14728</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>176736</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>1976.222222222222</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.03778337531486146</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>1012615</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>896</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>55</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>2412409</v>
       </c>
-      <c r="J9" t="n">
-        <v>44</v>
+      <c r="K9" t="n">
+        <v>4384</v>
+      </c>
+      <c r="L9" t="n">
+        <v>699492</v>
       </c>
     </row>
     <row r="10">
@@ -764,31 +822,37 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>17</v>
+      </c>
+      <c r="C10" t="n">
         <v>12593</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>151116</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>3475.555555555556</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1039387308533917</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>22040323</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>1628</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>71</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>1616516</v>
       </c>
-      <c r="J10" t="n">
-        <v>17</v>
+      <c r="K10" t="n">
+        <v>2674</v>
+      </c>
+      <c r="L10" t="n">
+        <v>424978</v>
       </c>
     </row>
     <row r="11">
@@ -798,31 +862,37 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>697</v>
+      </c>
+      <c r="C11" t="n">
         <v>10384</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>124608</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>66926.88888888889</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.1100849700515392</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>10852484</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>12515</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>1542</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>25616117</v>
       </c>
-      <c r="J11" t="n">
-        <v>697</v>
+      <c r="K11" t="n">
+        <v>88185</v>
+      </c>
+      <c r="L11" t="n">
+        <v>10721617</v>
       </c>
     </row>
     <row r="12">
@@ -832,31 +902,37 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>357</v>
+      </c>
+      <c r="C12" t="n">
         <v>8413</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>100956</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>27631</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.08792816082179666</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>1433336</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>4594</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>738</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>8764323</v>
       </c>
-      <c r="J12" t="n">
-        <v>357</v>
+      <c r="K12" t="n">
+        <v>39695</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4334554</v>
       </c>
     </row>
     <row r="13">
@@ -866,31 +942,37 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>43</v>
+      </c>
+      <c r="C13" t="n">
         <v>15002</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>180024</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>3159.666666666667</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>-0.01564495530012771</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>1981332</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>46</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>3</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>7150</v>
       </c>
-      <c r="J13" t="n">
-        <v>43</v>
+      <c r="K13" t="n">
+        <v>4296</v>
+      </c>
+      <c r="L13" t="n">
+        <v>604409</v>
       </c>
     </row>
     <row r="14">
@@ -900,31 +982,37 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>80</v>
+      </c>
+      <c r="C14" t="n">
         <v>10220</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>122640</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>19686</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.03873150532747564</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>12518144</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>1365</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>113</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>2178596</v>
       </c>
-      <c r="J14" t="n">
-        <v>80</v>
+      <c r="K14" t="n">
+        <v>6486</v>
+      </c>
+      <c r="L14" t="n">
+        <v>632175</v>
       </c>
     </row>
     <row r="15">
@@ -934,31 +1022,37 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>694</v>
+      </c>
+      <c r="C15" t="n">
         <v>7519</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>90228</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>3657.888888888889</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.09102434077079108</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>6831167</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>8519</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>946</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>13234798</v>
       </c>
-      <c r="J15" t="n">
-        <v>694</v>
+      <c r="K15" t="n">
+        <v>81367</v>
+      </c>
+      <c r="L15" t="n">
+        <v>7559970</v>
       </c>
     </row>
     <row r="16">
@@ -968,31 +1062,37 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>521</v>
+      </c>
+      <c r="C16" t="n">
         <v>8724</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>104688</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>56573.55555555555</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.1296633227061043</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>3196911</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>2189</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>184</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>2486095</v>
       </c>
-      <c r="J16" t="n">
-        <v>521</v>
+      <c r="K16" t="n">
+        <v>52181</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5330743</v>
       </c>
     </row>
     <row r="17">
@@ -1002,31 +1102,37 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>412</v>
+      </c>
+      <c r="C17" t="n">
         <v>8249</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>98988</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>33906.77777777778</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.08988636039987469</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>2928419</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>24341</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>2389</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>69986533</v>
       </c>
-      <c r="J17" t="n">
-        <v>412</v>
+      <c r="K17" t="n">
+        <v>28558</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2507578</v>
       </c>
     </row>
     <row r="18">
@@ -1036,31 +1142,37 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>313</v>
+      </c>
+      <c r="C18" t="n">
         <v>7556</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>90672</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>14469.88888888889</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.05267102752793677</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>4519315</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>14688</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>1325</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>17961843</v>
       </c>
-      <c r="J18" t="n">
-        <v>313</v>
+      <c r="K18" t="n">
+        <v>19884</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1874096</v>
       </c>
     </row>
     <row r="19">
@@ -1070,31 +1182,37 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>276</v>
+      </c>
+      <c r="C19" t="n">
         <v>8614</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>103368</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>20069.66666666667</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.06845558711193811</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>4576882</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>7024</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>815</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>8183388</v>
       </c>
-      <c r="J19" t="n">
-        <v>276</v>
+      <c r="K19" t="n">
+        <v>27146</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2647675</v>
       </c>
     </row>
     <row r="20">
@@ -1104,31 +1222,37 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>269</v>
+      </c>
+      <c r="C20" t="n">
         <v>6911</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>82932</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>21796.55555555555</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.07328751939702949</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>1381441</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>3928</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>396</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>8871531</v>
       </c>
-      <c r="J20" t="n">
-        <v>269</v>
+      <c r="K20" t="n">
+        <v>34044</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2284489</v>
       </c>
     </row>
     <row r="21">
@@ -1138,31 +1262,37 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>87</v>
+      </c>
+      <c r="C21" t="n">
         <v>12593</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>151116</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>31527.88888888889</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.0834714294482293</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>6157731</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>4575</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>562</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>6286290</v>
       </c>
-      <c r="J21" t="n">
-        <v>87</v>
+      <c r="K21" t="n">
+        <v>6253</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1167318</v>
       </c>
     </row>
     <row r="22">
@@ -1172,31 +1302,37 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>225</v>
+      </c>
+      <c r="C22" t="n">
         <v>12410</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>148920</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>21272.88888888889</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.1201191852708352</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>6962372</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>11350</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>958</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>20331026</v>
       </c>
-      <c r="J22" t="n">
-        <v>225</v>
+      <c r="K22" t="n">
+        <v>28158</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3766289</v>
       </c>
     </row>
     <row r="23">
@@ -1206,31 +1342,37 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>353</v>
+      </c>
+      <c r="C23" t="n">
         <v>15148</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>181776</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>4887.111111111111</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>0.04457973291437549</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>10032720</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>9461</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>348</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>4825443</v>
       </c>
-      <c r="J23" t="n">
-        <v>353</v>
+      <c r="K23" t="n">
+        <v>46029</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5932813</v>
       </c>
     </row>
     <row r="24">
@@ -1240,31 +1382,37 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>430</v>
+      </c>
+      <c r="C24" t="n">
         <v>10914</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>130968</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>31645.77777777778</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>0.09097992208570573</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>5702253</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>1610</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>89</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>732234</v>
       </c>
-      <c r="J24" t="n">
-        <v>430</v>
+      <c r="K24" t="n">
+        <v>47102</v>
+      </c>
+      <c r="L24" t="n">
+        <v>5868040</v>
       </c>
     </row>
     <row r="25">
@@ -1274,31 +1422,37 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>353</v>
+      </c>
+      <c r="C25" t="n">
         <v>13921</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>167052</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>19658.44444444445</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>0.01714973422926487</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>2940820</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>16644</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>1189</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>35999121</v>
       </c>
-      <c r="J25" t="n">
-        <v>353</v>
+      <c r="K25" t="n">
+        <v>26576</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2765837</v>
       </c>
     </row>
     <row r="26">
@@ -1308,31 +1462,37 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>202</v>
+      </c>
+      <c r="C26" t="n">
         <v>8541</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>102492</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>31743.22222222222</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>0.1296163499462173</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>6180523</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>8265</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>826</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>14075722</v>
       </c>
-      <c r="J26" t="n">
-        <v>202</v>
+      <c r="K26" t="n">
+        <v>16464</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1441731</v>
       </c>
     </row>
     <row r="27">
@@ -1342,31 +1502,37 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>510</v>
+      </c>
+      <c r="C27" t="n">
         <v>6315</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>75780</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>13617</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>0.07864771200226324</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>1125473</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>15833</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>1778</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>21549250</v>
       </c>
-      <c r="J27" t="n">
-        <v>510</v>
+      <c r="K27" t="n">
+        <v>54977</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3829977</v>
       </c>
     </row>
     <row r="28">
@@ -1376,31 +1542,37 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>62</v>
+      </c>
+      <c r="C28" t="n">
         <v>9089</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>109068</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>3158.666666666667</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>0.006620428751576293</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>1966441</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>2634</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>227</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>4617342</v>
       </c>
-      <c r="J28" t="n">
-        <v>62</v>
+      <c r="K28" t="n">
+        <v>5644</v>
+      </c>
+      <c r="L28" t="n">
+        <v>315947</v>
       </c>
     </row>
     <row r="29">
@@ -1410,31 +1582,37 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>185</v>
+      </c>
+      <c r="C29" t="n">
         <v>8979</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>107748</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>31356</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>0.129995126705653</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>3201212</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>1389</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>293</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>4562038</v>
       </c>
-      <c r="J29" t="n">
-        <v>185</v>
+      <c r="K29" t="n">
+        <v>15256</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1305705</v>
       </c>
     </row>
     <row r="30">
@@ -1444,31 +1622,37 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>67</v>
+      </c>
+      <c r="C30" t="n">
         <v>11060</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>132720</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>4445.666666666667</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>0.04958492259367287</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>1405243</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>8349</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>825</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>22107564</v>
       </c>
-      <c r="J30" t="n">
-        <v>67</v>
+      <c r="K30" t="n">
+        <v>6860</v>
+      </c>
+      <c r="L30" t="n">
+        <v>891435</v>
       </c>
     </row>
     <row r="31">
@@ -1478,31 +1662,37 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>73</v>
+      </c>
+      <c r="C31" t="n">
         <v>13140</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>157680</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>9359.222222222223</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>0.03264221158958001</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>9242109</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>1256</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>104</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>1146282</v>
       </c>
-      <c r="J31" t="n">
-        <v>73</v>
+      <c r="K31" t="n">
+        <v>6937</v>
+      </c>
+      <c r="L31" t="n">
+        <v>904564</v>
       </c>
     </row>
     <row r="32">
@@ -1512,31 +1702,37 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>348</v>
+      </c>
+      <c r="C32" t="n">
         <v>13504</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>162048</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>5484.777777777777</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>0.06004945249028612</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>2113550</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>3744</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>369</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>3628833</v>
       </c>
-      <c r="J32" t="n">
-        <v>348</v>
+      <c r="K32" t="n">
+        <v>54015</v>
+      </c>
+      <c r="L32" t="n">
+        <v>6372948</v>
       </c>
     </row>
     <row r="33">
@@ -1546,31 +1742,37 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>68</v>
+      </c>
+      <c r="C33" t="n">
         <v>9125</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>109500</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>37192.11111111111</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>0.1084282344586197</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>19415392</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>1002</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>95</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>1049582</v>
       </c>
-      <c r="J33" t="n">
-        <v>68</v>
+      <c r="K33" t="n">
+        <v>7145</v>
+      </c>
+      <c r="L33" t="n">
+        <v>705338</v>
       </c>
     </row>
     <row r="34">
@@ -1580,31 +1782,37 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>606</v>
+      </c>
+      <c r="C34" t="n">
         <v>15330</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>183960</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>4855.333333333333</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>0.1169085916045508</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>10678831</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>5182</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>803</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>12082855</v>
       </c>
-      <c r="J34" t="n">
-        <v>606</v>
+      <c r="K34" t="n">
+        <v>113414</v>
+      </c>
+      <c r="L34" t="n">
+        <v>16677396</v>
       </c>
     </row>
     <row r="35">
@@ -1614,31 +1822,37 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>420</v>
+      </c>
+      <c r="C35" t="n">
         <v>8979</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>107748</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>5124.555555555556</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>0.1337325349301397</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>770221</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>2864</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>244</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>4624593</v>
       </c>
-      <c r="J35" t="n">
-        <v>420</v>
+      <c r="K35" t="n">
+        <v>44738</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4838162</v>
       </c>
     </row>
     <row r="36">
@@ -1648,31 +1862,37 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>77</v>
+      </c>
+      <c r="C36" t="n">
         <v>14374</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>172488</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>92205.55555555556</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>0.09671179883945841</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>11767059</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>2815</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>263</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>1479126</v>
       </c>
-      <c r="J36" t="n">
-        <v>77</v>
+      <c r="K36" t="n">
+        <v>5109</v>
+      </c>
+      <c r="L36" t="n">
+        <v>527149</v>
       </c>
     </row>
     <row r="37">
@@ -1682,31 +1902,37 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>946</v>
+      </c>
+      <c r="C37" t="n">
         <v>8760</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>105120</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>62399.11111111111</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>0.09668933263591889</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>4018931</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>9599</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>911</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>7053562</v>
       </c>
-      <c r="J37" t="n">
-        <v>946</v>
+      <c r="K37" t="n">
+        <v>91570</v>
+      </c>
+      <c r="L37" t="n">
+        <v>9053725</v>
       </c>
     </row>
     <row r="38">
@@ -1716,31 +1942,37 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>292</v>
+      </c>
+      <c r="C38" t="n">
         <v>6570</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>78840</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>15212.22222222222</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>0.09074226412706449</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>4259743</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>27993</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>2245</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>35090149</v>
       </c>
-      <c r="J38" t="n">
-        <v>292</v>
+      <c r="K38" t="n">
+        <v>29677</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1726879</v>
       </c>
     </row>
     <row r="39">
@@ -1750,31 +1982,37 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>129</v>
+      </c>
+      <c r="C39" t="n">
         <v>12410</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>148920</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>6165.111111111111</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>-0.02856220751976763</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>12916089</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>7080</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>953</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>7787192</v>
       </c>
-      <c r="J39" t="n">
-        <v>129</v>
+      <c r="K39" t="n">
+        <v>10020</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1248069</v>
       </c>
     </row>
     <row r="40">
@@ -1784,31 +2022,37 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>672</v>
+      </c>
+      <c r="C40" t="n">
         <v>12484</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>149808</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>63692.77777777778</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>0.07261703970460866</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>1094843</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>4557</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>313</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>5199588</v>
       </c>
-      <c r="J40" t="n">
-        <v>672</v>
+      <c r="K40" t="n">
+        <v>86150</v>
+      </c>
+      <c r="L40" t="n">
+        <v>10964321</v>
       </c>
     </row>
     <row r="41">
@@ -1818,31 +2062,37 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>75</v>
+      </c>
+      <c r="C41" t="n">
         <v>11315</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>135780</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>6467.333333333333</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>0.1341374800174393</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>5259222</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>17419</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>1317</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>21494990</v>
       </c>
-      <c r="J41" t="n">
-        <v>75</v>
+      <c r="K41" t="n">
+        <v>8775</v>
+      </c>
+      <c r="L41" t="n">
+        <v>945672</v>
       </c>
     </row>
     <row r="42">
@@ -1852,31 +2102,37 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>188</v>
+      </c>
+      <c r="C42" t="n">
         <v>8742</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>104904</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>15117.11111111111</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>0.09797361277697116</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>905404</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>112</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>47</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>352025</v>
       </c>
-      <c r="J42" t="n">
-        <v>188</v>
+      <c r="K42" t="n">
+        <v>19805</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2258091</v>
       </c>
     </row>
     <row r="43">
@@ -1886,31 +2142,37 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>98</v>
+      </c>
+      <c r="C43" t="n">
         <v>8541</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>102492</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>7072.333333333333</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>0.05562526139690506</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>7059618</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>1866</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>230</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>4727888</v>
       </c>
-      <c r="J43" t="n">
-        <v>98</v>
+      <c r="K43" t="n">
+        <v>5655</v>
+      </c>
+      <c r="L43" t="n">
+        <v>519646</v>
       </c>
     </row>
     <row r="44">
@@ -1920,31 +2182,37 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>312</v>
+      </c>
+      <c r="C44" t="n">
         <v>8578</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>102936</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>19224.55555555555</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>0.08106219426974144</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>29947238</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>2850</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>352</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>4721542</v>
       </c>
-      <c r="J44" t="n">
-        <v>312</v>
+      <c r="K44" t="n">
+        <v>37034</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3269653</v>
       </c>
     </row>
     <row r="45">
@@ -1954,31 +2222,37 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>1195</v>
+      </c>
+      <c r="C45" t="n">
         <v>6150</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>73800</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>66427.88888888889</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>0.1077258018463881</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>3426431</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>1281</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>163</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>2013213</v>
       </c>
-      <c r="J45" t="n">
-        <v>1195</v>
+      <c r="K45" t="n">
+        <v>148392</v>
+      </c>
+      <c r="L45" t="n">
+        <v>9083651</v>
       </c>
     </row>
     <row r="46">
@@ -1988,31 +2262,37 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>98</v>
+      </c>
+      <c r="C46" t="n">
         <v>8614</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>103368</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>22662.66666666667</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>0.1180791972764737</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>647378</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>4309</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>403</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>9324806</v>
       </c>
-      <c r="J46" t="n">
-        <v>98</v>
+      <c r="K46" t="n">
+        <v>8781</v>
+      </c>
+      <c r="L46" t="n">
+        <v>864580</v>
       </c>
     </row>
     <row r="47">
@@ -2022,31 +2302,37 @@
         </is>
       </c>
       <c r="B47" t="n">
+        <v>35</v>
+      </c>
+      <c r="C47" t="n">
         <v>12702</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>152424</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>20842.44444444445</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>0.1306595760395893</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>8662151</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>24058</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>3592</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>54442591</v>
       </c>
-      <c r="J47" t="n">
-        <v>35</v>
+      <c r="K47" t="n">
+        <v>2995</v>
+      </c>
+      <c r="L47" t="n">
+        <v>396837</v>
       </c>
     </row>
     <row r="48">
@@ -2056,31 +2342,37 @@
         </is>
       </c>
       <c r="B48" t="n">
+        <v>289</v>
+      </c>
+      <c r="C48" t="n">
         <v>9855</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>118260</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>7728.111111111111</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>0.08409189423493715</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>7765004</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>2646</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>275</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>3085350</v>
       </c>
-      <c r="J48" t="n">
-        <v>289</v>
+      <c r="K48" t="n">
+        <v>32149</v>
+      </c>
+      <c r="L48" t="n">
+        <v>4529315</v>
       </c>
     </row>
     <row r="49">
@@ -2090,31 +2382,37 @@
         </is>
       </c>
       <c r="B49" t="n">
+        <v>198</v>
+      </c>
+      <c r="C49" t="n">
         <v>11315</v>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>135780</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>9989.444444444445</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>0.09215413184772517</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>657185</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>10075</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>459</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>6496163</v>
       </c>
-      <c r="J49" t="n">
-        <v>198</v>
+      <c r="K49" t="n">
+        <v>20848</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2510233</v>
       </c>
     </row>
     <row r="50">
@@ -2124,31 +2422,37 @@
         </is>
       </c>
       <c r="B50" t="n">
+        <v>123</v>
+      </c>
+      <c r="C50" t="n">
         <v>13943</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>167316</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>16504.55555555555</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>-0.03337396250507865</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>1773866</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>680</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>49</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>1287903</v>
       </c>
-      <c r="J50" t="n">
-        <v>123</v>
+      <c r="K50" t="n">
+        <v>10077</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1259821</v>
       </c>
     </row>
     <row r="51">
@@ -2158,31 +2462,37 @@
         </is>
       </c>
       <c r="B51" t="n">
+        <v>332</v>
+      </c>
+      <c r="C51" t="n">
         <v>10826</v>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>129912</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>10618.11111111111</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>0.1058963797962281</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>5903573</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>10457</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>526</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>14011082</v>
       </c>
-      <c r="J51" t="n">
-        <v>332</v>
+      <c r="K51" t="n">
+        <v>29089</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2755982</v>
       </c>
     </row>
     <row r="52">
@@ -2192,31 +2502,37 @@
         </is>
       </c>
       <c r="B52" t="n">
+        <v>36</v>
+      </c>
+      <c r="C52" t="n">
         <v>8395</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>100740</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>3555.555555555556</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>0.03368526897938662</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>581813</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>7738</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>778</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>19119175</v>
       </c>
-      <c r="J52" t="n">
-        <v>36</v>
+      <c r="K52" t="n">
+        <v>2589</v>
+      </c>
+      <c r="L52" t="n">
+        <v>235530</v>
       </c>
     </row>
     <row r="53">
@@ -2226,18 +2542,18 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="n">
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="n">
         <v>4327</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>154</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>2557413</v>
       </c>
-      <c r="J53" t="n">
-        <v>294.1764705882353</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -2246,18 +2562,18 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" t="n">
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
         <v>693</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>102</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>902870</v>
       </c>
-      <c r="J54" t="n">
-        <v>294.1764705882353</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/outputdata.xlsx
+++ b/outputdata.xlsx
@@ -1,37 +1,234 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Facility Total</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>Employee Average</t>
+  </si>
+  <si>
+    <t>Staff Increase/Decrease</t>
+  </si>
+  <si>
+    <t>Population 2023</t>
+  </si>
+  <si>
+    <t>Total Deficiencies</t>
+  </si>
+  <si>
+    <t>Fines</t>
+  </si>
+  <si>
+    <t>Sum of Fines</t>
+  </si>
+  <si>
+    <t>Certified Beds by State</t>
+  </si>
+  <si>
+    <t>Gross Patient Revenue</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +243,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2162 +559,2012 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Facility Total</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Annual</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Employee Average</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Staff Increase/Decrease</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Population 2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total Deficiencies</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Fines</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Sum of Fines</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Certified Beds by State</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Gross Patient Revenue</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Alabama</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
         <v>225</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>8012</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>96144</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>19238.77777777778</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.09617449009466185</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>5056005</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>535</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>54</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>851118</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>26573</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>2122719</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Alaska</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
         <v>20</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>37814</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>453768</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>581.7777777777778</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.2512</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>731721</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>2258</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>244</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>2078926</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>720</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>165283</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
         <v>142</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>7848</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>94176</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>14836.11111111111</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.1309341500765697</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>7408017</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>6039</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>346</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>3670366</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>15828</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>1934486</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Arkansas</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
         <v>218</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>7300</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>87600</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>10633.44444444445</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.1041940285439103</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>3042231</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>3066</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>191</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>1130158</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>24928</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>1740574</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
         <v>1170</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>11753</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>141036</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>91049.22222222222</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.1425659619796788</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>38959247</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>52680</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>2765</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>23922459</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>113562</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>15833208</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Colorado</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
         <v>218</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>10281</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>123372</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>14047.55555555555</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.08539621075923109</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>5855078</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>5030</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>806</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>10149862</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>20179</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>2201353</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Connecticut</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
         <v>203</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>16516</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>198192</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>18894.22222222222</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.1014821536600121</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>3609924</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>5724</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>386</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>6550825</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>26881</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>3763507</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Delaware</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
         <v>44</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>14728</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>176736</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>1976.222222222222</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.03778337531486146</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>1012615</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>896</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>55</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>2412409</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>4384</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>699492</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>District of Columbia</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
         <v>17</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>12593</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>151116</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>3475.555555555556</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.1039387308533917</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>22040323</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>1628</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>71</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>1616516</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>2674</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>424978</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Florida</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
         <v>697</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>10384</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>124608</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>66926.88888888889</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.1100849700515392</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>10852484</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>12515</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>1542</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>25616117</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>88185</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>10721617</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
         <v>357</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>8413</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>100956</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>27631</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.08792816082179666</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>1433336</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>4594</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>738</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>8764323</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>39695</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>4334554</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Hawaii</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
         <v>43</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>15002</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>180024</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>3159.666666666667</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-0.01564495530012771</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>1981332</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>46</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>3</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>7150</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>4296</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>604409</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Idaho</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
         <v>80</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>10220</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>122640</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>19686</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.03873150532747564</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>12518144</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>1365</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>113</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>2178596</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>6486</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>632175</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Illinois</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
         <v>694</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>7519</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>90228</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>3657.888888888889</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.09102434077079108</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>6831167</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>8519</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>946</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>13234798</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>81367</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>7559970</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Indiana</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
         <v>521</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>8724</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>104688</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>56573.55555555555</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.1296633227061043</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>3196911</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>2189</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>184</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>2486095</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>52181</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>5330743</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Iowa</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
         <v>412</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>8249</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>98988</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>33906.77777777778</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.08988636039987469</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>2928419</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>24341</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>2389</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>69986533</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>28558</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>2507578</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Kansas</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
         <v>313</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>7556</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>90672</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>14469.88888888889</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.05267102752793677</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>4519315</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>14688</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>1325</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>17961843</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>19884</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>1874096</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Kentucky</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
         <v>276</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>8614</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>103368</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>20069.66666666667</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.06845558711193811</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>4576882</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>7024</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>815</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>8183388</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>27146</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>2647675</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Louisiana</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
         <v>269</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>6911</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>82932</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>21796.55555555555</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.07328751939702949</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>1381441</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>3928</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>396</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>8871531</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>34044</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>2284489</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Maine</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
         <v>87</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>12593</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>151116</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>31527.88888888889</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>0.0834714294482293</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>6157731</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>4575</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>562</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>6286290</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>6253</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>1167318</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Maryland</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
         <v>225</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>12410</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>148920</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>21272.88888888889</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>0.1201191852708352</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>6962372</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>11350</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>958</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>20331026</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>28158</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>3766289</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Massachusetts</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
         <v>353</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>15148</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>181776</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>4887.111111111111</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>0.04457973291437549</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>10032720</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>9461</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>348</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>4825443</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>46029</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>5932813</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Michigan</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
         <v>430</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>10914</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>130968</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>31645.77777777778</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>0.09097992208570573</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>5702253</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>1610</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>89</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>732234</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>47102</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>5868040</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Minnesota</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
         <v>353</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>13921</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>167052</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>19658.44444444445</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>0.01714973422926487</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>2940820</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>16644</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>1189</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>35999121</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>26576</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>2765837</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Mississippi</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
         <v>202</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>8541</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>102492</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>31743.22222222222</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>0.1296163499462173</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>6180523</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>8265</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>826</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>14075722</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>16464</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>1441731</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Missouri</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
         <v>510</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>6315</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>75780</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>13617</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>0.07864771200226324</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>1125473</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>15833</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>1778</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>21549250</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>54977</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>3829977</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Montana</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28">
         <v>62</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>9089</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>109068</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>3158.666666666667</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>0.006620428751576293</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>1966441</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>2634</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>227</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>4617342</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>5644</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>315947</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Nebraska</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29">
         <v>185</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>8979</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>107748</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>31356</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>0.129995126705653</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>3201212</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>1389</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>293</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>4562038</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>15256</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>1305705</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Nevada</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30">
         <v>67</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>11060</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>132720</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>4445.666666666667</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>0.04958492259367287</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>1405243</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>8349</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>825</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>22107564</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>6860</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>891435</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>New Hampshire</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31">
         <v>73</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>13140</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>157680</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>9359.222222222223</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>0.03264221158958001</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>9242109</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>1256</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>104</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>1146282</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>6937</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>904564</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>New Jersey</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32">
         <v>348</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>13504</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>162048</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>5484.777777777777</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>0.06004945249028612</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>2113550</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>3744</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>369</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>3628833</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>54015</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>6372948</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>New Mexico</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33">
         <v>68</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>9125</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>109500</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>37192.11111111111</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>0.1084282344586197</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>19415392</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>1002</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>95</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>1049582</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>7145</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33">
         <v>705338</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>New York</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34">
         <v>606</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>15330</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>183960</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>4855.333333333333</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>0.1169085916045508</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>10678831</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>5182</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>803</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>12082855</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>113414</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34">
         <v>16677396</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>North Carolina</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35">
         <v>420</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>8979</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>107748</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>5124.555555555556</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>0.1337325349301397</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>770221</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>2864</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>244</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>4624593</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>44738</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>4838162</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>North Dakota</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36">
         <v>77</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>14374</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>172488</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>92205.55555555556</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>0.09671179883945841</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>11767059</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>2815</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>263</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>1479126</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>5109</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36">
         <v>527149</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Ohio</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37">
         <v>946</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>8760</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>105120</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>62399.11111111111</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>0.09668933263591889</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>4018931</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>9599</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>911</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>7053562</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>91570</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37">
         <v>9053725</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Oklahoma</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38">
         <v>292</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>6570</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>78840</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>15212.22222222222</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>0.09074226412706449</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>4259743</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>27993</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>2245</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>35090149</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>29677</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L38">
         <v>1726879</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Oregon</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39">
         <v>129</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>12410</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>148920</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>6165.111111111111</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-0.02856220751976763</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>12916089</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>7080</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>953</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>7787192</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>10020</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L39">
         <v>1248069</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Pennsylvania</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40">
         <v>672</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>12484</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>149808</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>63692.77777777778</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>0.07261703970460866</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>1094843</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>4557</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>313</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>5199588</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>86150</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40">
         <v>10964321</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Rhode Island</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41">
         <v>75</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>11315</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>135780</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>6467.333333333333</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.1341374800174393</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>5259222</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>17419</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>1317</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>21494990</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>8775</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41">
         <v>945672</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>South Carolina</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
         <v>188</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>8742</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>104904</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>15117.11111111111</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>0.09797361277697116</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>905404</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>112</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>47</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>352025</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>19805</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L42">
         <v>2258091</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>South Dakota</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43">
         <v>98</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>8541</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>102492</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>7072.333333333333</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.05562526139690506</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>7059618</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>1866</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>230</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>4727888</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>5655</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43">
         <v>519646</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Tennessee</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44">
         <v>312</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>8578</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>102936</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>19224.55555555555</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>0.08106219426974144</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>29947238</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>2850</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>352</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>4721542</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>37034</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L44">
         <v>3269653</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Texas</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45">
         <v>1195</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>6150</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>73800</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>66427.88888888889</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>0.1077258018463881</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>3426431</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>1281</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>163</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>2013213</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>148392</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L45">
         <v>9083651</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Utah</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46">
         <v>98</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>8614</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>103368</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>22662.66666666667</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>0.1180791972764737</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>647378</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>4309</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>403</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>9324806</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>8781</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L46">
         <v>864580</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Vermont</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47">
         <v>35</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>12702</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>152424</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>20842.44444444445</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>0.1306595760395893</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>8662151</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>24058</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>3592</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>54442591</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>2995</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L47">
         <v>396837</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Virginia</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48">
         <v>289</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>9855</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>118260</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>7728.111111111111</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>0.08409189423493715</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>7765004</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>2646</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>275</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>3085350</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48">
         <v>32149</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L48">
         <v>4529315</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Washington</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49">
         <v>198</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>11315</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>135780</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>9989.444444444445</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>0.09215413184772517</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>657185</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>10075</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>459</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>6496163</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49">
         <v>20848</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L49">
         <v>2510233</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>West Virginia</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50">
         <v>123</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>13943</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>167316</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>16504.55555555555</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-0.03337396250507865</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>1773866</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>680</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>49</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>1287903</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50">
         <v>10077</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L50">
         <v>1259821</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Wisconsin</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51">
         <v>332</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>10826</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>129912</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>10618.11111111111</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>0.1058963797962281</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>5903573</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>10457</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>526</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>14011082</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51">
         <v>29089</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L51">
         <v>2755982</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Wyoming</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52">
         <v>36</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>8395</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>100740</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>3555.555555555556</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>0.03368526897938662</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>581813</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>7738</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>778</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>19119175</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52">
         <v>2589</v>
       </c>
-      <c r="L52" t="n">
+      <c r="L52">
         <v>235530</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="n">
+    <row r="53" spans="1:12">
+      <c r="H53">
         <v>4327</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>154</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>2557413</v>
       </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="n">
+    </row>
+    <row r="54" spans="1:12">
+      <c r="H54">
         <v>693</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>102</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>902870</v>
       </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>